--- a/data/words/v1/连词词库.xlsx
+++ b/data/words/v1/连词词库.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/rd/project/zentao/go/zd/data/words/v1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C5D521-7628-6F40-90F7-4A14107B4471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="7140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -282,14 +286,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,158 +301,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,198 +316,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -677,251 +344,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -942,61 +367,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1283,25 +664,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="O80" sqref="O80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1339,7 +719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1357,7 +737,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -1375,7 +755,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1393,7 +773,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1411,7 +791,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1429,7 +809,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1447,7 +827,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1465,7 +845,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1483,7 +863,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="10" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1501,7 +881,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="11" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1519,7 +899,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="12" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -1537,7 +917,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="13" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -1555,7 +935,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="14" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -1573,7 +953,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="15" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
@@ -1591,7 +971,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="16" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
@@ -1609,7 +989,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="17" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
@@ -1627,7 +1007,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="18" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -1645,7 +1025,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="19" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -1663,7 +1043,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="20" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -1681,7 +1061,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="21" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
@@ -1699,7 +1079,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="22" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A22" s="4" t="s">
         <v>33</v>
       </c>
@@ -1717,7 +1097,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="23" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A23" s="4" t="s">
         <v>34</v>
       </c>
@@ -1735,7 +1115,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="24" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A24" s="4" t="s">
         <v>19</v>
       </c>
@@ -1753,7 +1133,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="25" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A25" s="4" t="s">
         <v>35</v>
       </c>
@@ -1771,7 +1151,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="26" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
@@ -1789,7 +1169,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="27" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A27" s="4" t="s">
         <v>37</v>
       </c>
@@ -1807,7 +1187,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="28" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A28" s="4" t="s">
         <v>23</v>
       </c>
@@ -1825,7 +1205,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="29" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A29" s="4" t="s">
         <v>38</v>
       </c>
@@ -1843,7 +1223,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="30" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A30" s="4" t="s">
         <v>39</v>
       </c>
@@ -1861,7 +1241,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="31" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A31" s="4" t="s">
         <v>40</v>
       </c>
@@ -1879,7 +1259,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="32" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
@@ -1897,7 +1277,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="33" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A33" s="4" t="s">
         <v>42</v>
       </c>
@@ -1915,7 +1295,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="34" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A34" s="4" t="s">
         <v>43</v>
       </c>
@@ -1933,7 +1313,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="35" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
@@ -1951,7 +1331,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="36" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A36" s="4" t="s">
         <v>45</v>
       </c>
@@ -1969,7 +1349,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="37" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A37" s="4" t="s">
         <v>46</v>
       </c>
@@ -1987,7 +1367,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="38" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A38" s="4" t="s">
         <v>47</v>
       </c>
@@ -2005,7 +1385,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="39" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A39" s="4" t="s">
         <v>48</v>
       </c>
@@ -2023,7 +1403,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="40" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A40" s="4" t="s">
         <v>49</v>
       </c>
@@ -2041,7 +1421,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="41" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A41" s="4" t="s">
         <v>50</v>
       </c>
@@ -2059,7 +1439,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="42" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A42" s="4" t="s">
         <v>51</v>
       </c>
@@ -2077,7 +1457,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="43" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A43" s="4" t="s">
         <v>52</v>
       </c>
@@ -2095,7 +1475,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="44" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A44" s="4" t="s">
         <v>53</v>
       </c>
@@ -2113,7 +1493,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="45" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A45" s="4" t="s">
         <v>54</v>
       </c>
@@ -2131,7 +1511,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="46" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A46" s="4" t="s">
         <v>55</v>
       </c>
@@ -2149,7 +1529,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="47" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A47" s="4" t="s">
         <v>56</v>
       </c>
@@ -2167,7 +1547,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="48" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A48" s="4" t="s">
         <v>57</v>
       </c>
@@ -2185,7 +1565,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="49" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A49" s="4" t="s">
         <v>58</v>
       </c>
@@ -2203,7 +1583,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="50" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A50" s="4" t="s">
         <v>59</v>
       </c>
@@ -2221,7 +1601,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="51" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A51" s="4" t="s">
         <v>60</v>
       </c>
@@ -2239,7 +1619,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="52" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A52" s="4" t="s">
         <v>61</v>
       </c>
@@ -2257,7 +1637,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="53" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A53" s="4" t="s">
         <v>62</v>
       </c>
@@ -2275,7 +1655,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="54" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A54" s="4" t="s">
         <v>63</v>
       </c>
@@ -2293,7 +1673,7 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="55" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A55" s="4" t="s">
         <v>64</v>
       </c>
@@ -2311,7 +1691,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="56" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A56" s="4" t="s">
         <v>65</v>
       </c>
@@ -2329,7 +1709,7 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="57" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A57" s="4" t="s">
         <v>66</v>
       </c>
@@ -2347,7 +1727,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="58" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A58" s="4" t="s">
         <v>67</v>
       </c>
@@ -2365,7 +1745,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="59" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A59" s="4" t="s">
         <v>26</v>
       </c>
@@ -2383,7 +1763,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="60" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A60" s="4" t="s">
         <v>68</v>
       </c>
@@ -2401,7 +1781,7 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="61" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A61" s="4" t="s">
         <v>69</v>
       </c>
@@ -2419,7 +1799,7 @@
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="62" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A62" s="4" t="s">
         <v>70</v>
       </c>
@@ -2437,7 +1817,7 @@
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="63" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A63" s="4" t="s">
         <v>71</v>
       </c>
@@ -2455,7 +1835,7 @@
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="64" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A64" s="4" t="s">
         <v>72</v>
       </c>
@@ -2473,7 +1853,7 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="65" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A65" s="4" t="s">
         <v>73</v>
       </c>
@@ -2491,7 +1871,7 @@
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
     </row>
-    <row r="66" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="66" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A66" s="4" t="s">
         <v>32</v>
       </c>
@@ -2509,7 +1889,7 @@
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="67" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A67" s="4" t="s">
         <v>74</v>
       </c>
@@ -2527,7 +1907,7 @@
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="68" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A68" s="4" t="s">
         <v>75</v>
       </c>
@@ -2545,7 +1925,7 @@
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="69" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A69" s="4" t="s">
         <v>76</v>
       </c>
@@ -2563,7 +1943,7 @@
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="70" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A70" s="4" t="s">
         <v>64</v>
       </c>
@@ -2581,7 +1961,7 @@
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="71" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A71" s="4" t="s">
         <v>77</v>
       </c>
@@ -2599,7 +1979,7 @@
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="72" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A72" s="4" t="s">
         <v>78</v>
       </c>
@@ -2617,7 +1997,7 @@
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="73" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A73" s="4" t="s">
         <v>79</v>
       </c>
@@ -2635,7 +2015,7 @@
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="74" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A74" s="4" t="s">
         <v>80</v>
       </c>
@@ -2653,7 +2033,7 @@
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="75" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A75" s="4" t="s">
         <v>81</v>
       </c>
@@ -2671,7 +2051,7 @@
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="76" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A76" s="4" t="s">
         <v>82</v>
       </c>
@@ -2689,7 +2069,7 @@
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="77" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A77" s="4" t="s">
         <v>83</v>
       </c>
@@ -2707,7 +2087,7 @@
       </c>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="78" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A78" s="4" t="s">
         <v>60</v>
       </c>
@@ -2725,7 +2105,7 @@
       </c>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="79" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A79" s="4" t="s">
         <v>61</v>
       </c>
@@ -2743,7 +2123,7 @@
       </c>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="80" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A80" s="4" t="s">
         <v>84</v>
       </c>
@@ -2761,7 +2141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="81" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A81" s="4" t="s">
         <v>45</v>
       </c>
@@ -2779,7 +2159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="82" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A82" s="4" t="s">
         <v>85</v>
       </c>
@@ -2797,7 +2177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" s="2" customFormat="1" ht="15" spans="1:12">
+    <row r="83" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A83" s="4" t="s">
         <v>86</v>
       </c>
@@ -2816,42 +2196,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/data/words/v1/连词词库.xlsx
+++ b/data/words/v1/连词词库.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/rd/project/zentao/go/zd/data/words/v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C5D521-7628-6F40-90F7-4A14107B4471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD162EC6-D45B-BD4A-BF7B-25A80427C358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="7140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="连词" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
